--- a/RUDN/Importance/Varible_muatal_reg_in_Eastern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Eastern Africa.xlsx
@@ -79,12 +79,12 @@
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
@@ -127,18 +127,18 @@
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
@@ -250,24 +250,24 @@
     <t>Population, female</t>
   </si>
   <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
@@ -325,57 +325,57 @@
     <t>Female population 15-19</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Female population 00-04</t>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
   </si>
   <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
+    <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
     <t>Population, total</t>
   </si>
   <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
@@ -409,24 +409,27 @@
     <t>Population, male</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 20-24</t>
   </si>
   <si>
     <t>Male population 70-74</t>
   </si>
   <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
@@ -436,9 +439,6 @@
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
@@ -466,33 +466,33 @@
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
@@ -541,51 +541,51 @@
     <t>Population, female (% of total)</t>
   </si>
   <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
+    <t>Labor force, total</t>
   </si>
   <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
@@ -619,12 +619,12 @@
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
@@ -637,54 +637,54 @@
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+    <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
+    <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
@@ -730,12 +730,12 @@
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
@@ -892,12 +892,12 @@
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
@@ -907,48 +907,48 @@
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
@@ -979,15 +979,15 @@
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
@@ -1003,12 +1003,12 @@
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
     <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
@@ -1039,21 +1039,21 @@
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
@@ -1072,51 +1072,51 @@
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -1126,33 +1126,33 @@
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
@@ -1168,15 +1168,15 @@
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
@@ -1186,19 +1186,19 @@
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
     <t>Nurses and midwives (per 1,000 people)</t>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.875130126484264</v>
+        <v>1.877905936845214</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.529975629033882</v>
+        <v>1.530298835239442</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.386207343483985</v>
+        <v>1.386764252638179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.360585013406843</v>
+        <v>1.3590767177809</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.206550813868091</v>
+        <v>1.201912804818317</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.158413041065166</v>
+        <v>1.157652507699249</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.109510196138799</v>
+        <v>1.109413042960348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.108663588398081</v>
+        <v>1.108277175904442</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9940182259861805</v>
+        <v>0.9931096323174056</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9649649961208007</v>
+        <v>0.966170093003647</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9500417767280345</v>
+        <v>0.95173860930722</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9408272803500499</v>
+        <v>0.9409302306036555</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9245544816518412</v>
+        <v>0.9256857033712982</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9231544914452212</v>
+        <v>0.9221460494401881</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9119820527266476</v>
+        <v>0.9094842237582301</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.838571116509895</v>
+        <v>0.8393346911705284</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8285934322386881</v>
+        <v>0.8288596020550312</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8166349350994686</v>
+        <v>0.8177661568189256</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8050924104005022</v>
+        <v>0.8055448990882845</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8025129707844094</v>
+        <v>0.8040239597953991</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7905873115405329</v>
+        <v>0.7909859325273891</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7877182338582118</v>
+        <v>0.7866811076391484</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.773423268542325</v>
+        <v>0.7737633333431742</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7584281533543624</v>
+        <v>0.7588806420421452</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7430873294076541</v>
+        <v>0.74504811372138</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1844,7 +1844,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7326213086981732</v>
+        <v>0.7328356454450176</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.724547578340105</v>
+        <v>0.724846388642792</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7242430703924141</v>
+        <v>0.7248190500976448</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7237726258043224</v>
+        <v>0.7245052265369236</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7129545192864999</v>
+        <v>0.7134070079742822</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1884,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7120404261062094</v>
+        <v>0.7122547628530538</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7118559062723837</v>
+        <v>0.7111987265234525</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.711087744139153</v>
+        <v>0.7111617346282757</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1908,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7107462378356701</v>
+        <v>0.711087744139153</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1916,7 +1916,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7101430844486787</v>
+        <v>0.7105675589783038</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1924,7 +1924,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7085851879981342</v>
+        <v>0.709037676685917</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1932,7 +1932,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7079654205892512</v>
+        <v>0.708417909277034</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1940,7 +1940,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.704472370515199</v>
+        <v>0.7049955605604481</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1948,7 +1948,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7026610301668708</v>
+        <v>0.7034245582221361</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7017634333494804</v>
+        <v>0.7022159220372632</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6995294001313899</v>
+        <v>0.6964191815392855</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.693843396069763</v>
+        <v>0.6942321539564489</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6826105873871589</v>
+        <v>0.6830630760749417</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6779831856082947</v>
+        <v>0.6784356742960775</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6777285606472883</v>
+        <v>0.6781810493350711</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6714217593294802</v>
+        <v>0.6718197313078922</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6708427492815692</v>
+        <v>0.6712555459791956</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6616545913737886</v>
+        <v>0.6638012361082222</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6614197166988389</v>
+        <v>0.6624302862671305</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6555606239802518</v>
+        <v>0.6559412890668002</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6538300021591437</v>
+        <v>0.6542824908469274</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.653215519583791</v>
+        <v>0.6536680082715742</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6531723263480691</v>
+        <v>0.6535392763149117</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6529453849121962</v>
+        <v>0.6535065122859698</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6514629511862995</v>
+        <v>0.651855901888847</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6507667430382029</v>
+        <v>0.6513742706795225</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6491729042622443</v>
+        <v>0.6496253929500271</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6487712302957047</v>
+        <v>0.6493404951183632</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6483700417129308</v>
+        <v>0.6488225304007131</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6480282708187399</v>
+        <v>0.6483624567566406</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6473072651598462</v>
+        <v>0.6477597538476285</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6465715182074812</v>
+        <v>0.647024006895264</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6461483225236719</v>
+        <v>0.6466008112114543</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2180,7 +2180,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6460518729549856</v>
+        <v>0.6465043616427684</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6454152901393218</v>
+        <v>0.6458677788271046</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6453933495476907</v>
+        <v>0.6450916904225017</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6438398435422501</v>
+        <v>0.6441415026674386</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6432130283020596</v>
+        <v>0.6436655169898424</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.642476873264016</v>
+        <v>0.6432696810984431</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6424024111135265</v>
+        <v>0.6429293619517988</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6421402502383113</v>
+        <v>0.6425927389260937</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6403823922037493</v>
+        <v>0.6418634116469888</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6402479521307152</v>
+        <v>0.6408814577487401</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6399984993952006</v>
+        <v>0.6408348808915316</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6392946765548508</v>
+        <v>0.6396256862976255</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6379390854067664</v>
+        <v>0.6384519059195863</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6379309926966137</v>
+        <v>0.6383834813843969</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.637920559500798</v>
+        <v>0.6383135102033459</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6366964489950906</v>
+        <v>0.6369873345800943</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6363902696022756</v>
+        <v>0.636842758290058</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6360884358993717</v>
+        <v>0.6365409245871545</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2324,7 +2324,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6356660962330385</v>
+        <v>0.6358842730667913</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6348156611312512</v>
+        <v>0.6352681498190336</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6346703378261687</v>
+        <v>0.6351228265139515</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6343126863321662</v>
+        <v>0.6348850448302206</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6337636297818277</v>
+        <v>0.6343351944400797</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6328121774234861</v>
+        <v>0.6342817081617382</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6325734804919727</v>
+        <v>0.6332646661112689</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6318337968810162</v>
+        <v>0.632286285568799</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6314918196062251</v>
+        <v>0.6319443082940075</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6305976931132968</v>
+        <v>0.6310501818010792</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6297195099077961</v>
+        <v>0.6305200668169504</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6295832892836515</v>
+        <v>0.6300357779714343</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6291954802007762</v>
+        <v>0.6293123708708617</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.6287851718916504</v>
+        <v>0.6289254758070606</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6285995635714552</v>
+        <v>0.6284750250998861</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6280225364121037</v>
+        <v>0.6276282694029534</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6271757807151705</v>
+        <v>0.6266904207257622</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6262379320379794</v>
+        <v>0.6263754143111102</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6260665008808157</v>
+        <v>0.625877564358909</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.625922925623327</v>
+        <v>0.6257172276452247</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6246105366639854</v>
+        <v>0.6246184285411998</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.624165939853417</v>
+        <v>0.6246026920082848</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.624150203320502</v>
+        <v>0.6239318036323116</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.623113404702301</v>
+        <v>0.6236032622959637</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6229697566779389</v>
+        <v>0.6235658933900838</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6229298810403665</v>
+        <v>0.6233823697281489</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.621989370460871</v>
+        <v>0.6224418591486534</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.621840151512087</v>
+        <v>0.6221892431249163</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.6217367544371331</v>
+        <v>0.6221660637476929</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6215148706015206</v>
+        <v>0.6219673592893034</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6214211930868179</v>
+        <v>0.6218736817746011</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6205026170754206</v>
+        <v>0.6210170905149544</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.619045774504003</v>
+        <v>0.6194982631917858</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6186082251460303</v>
+        <v>0.6186072342781657</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.6179232810642659</v>
+        <v>0.6183757697520491</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6152350608158867</v>
+        <v>0.6158098437436115</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6151844371342783</v>
+        <v>0.6156369258220615</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.6130201647226405</v>
+        <v>0.6134726534104238</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.611432375934331</v>
+        <v>0.6118848646221138</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6106558457074684</v>
+        <v>0.6110538176858804</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.6086575671413681</v>
+        <v>0.6101790819372701</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.6078919256912378</v>
+        <v>0.6089816837869422</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6073668232853786</v>
+        <v>0.6075944660680359</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.6071419773802536</v>
+        <v>0.6074645752638879</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.6040890209263043</v>
+        <v>0.6045415096140876</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.6027060438799658</v>
+        <v>0.6031585325677482</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5980827582856083</v>
+        <v>0.6009013065887312</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.5972567260225068</v>
+        <v>0.5985352469733911</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.5965979615636652</v>
+        <v>0.5977092147102896</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.5965232937584415</v>
+        <v>0.5970504502514475</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5940979491835683</v>
+        <v>0.5946601320986922</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5923207918811313</v>
+        <v>0.5927732805689141</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5910786710391256</v>
+        <v>0.591531159726908</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5903954987867204</v>
+        <v>0.5908479874745032</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5881064939188043</v>
+        <v>0.5884297001243635</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5842009473906322</v>
+        <v>0.5846534360784155</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5837638461095529</v>
+        <v>0.5842163347973357</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.5825417854375456</v>
+        <v>0.5825918264437004</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.5807821980871686</v>
+        <v>0.5806769681597772</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5800426721865901</v>
+        <v>0.5778134389604932</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.5773801080598946</v>
+        <v>0.5765731653948913</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5727952843296613</v>
+        <v>0.5729340080261283</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5723131487782807</v>
+        <v>0.5728136165442277</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5720920434581758</v>
+        <v>0.572765637466063</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5682416164436823</v>
+        <v>0.5676522404217805</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5603763234544346</v>
+        <v>0.5601522121502929</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.5601522121502929</v>
+        <v>0.5600095626804342</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5592781483593603</v>
+        <v>0.5592411165496673</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5592758874232118</v>
+        <v>0.5591332950155641</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2884,7 +2884,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.5576740447305042</v>
+        <v>0.5579075492972283</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2892,7 +2892,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.5572517458020387</v>
+        <v>0.5577042344898215</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2900,7 +2900,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5557998825739219</v>
+        <v>0.5562523712617047</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5555319454848218</v>
+        <v>0.5555670853881161</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5458980760967052</v>
+        <v>0.543631947505951</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5385442692608424</v>
+        <v>0.5384588940367316</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2940,7 +2940,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.5364244057136061</v>
+        <v>0.5363692241663154</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2948,7 +2948,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5348524481816028</v>
+        <v>0.534653528033834</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.529622705198231</v>
+        <v>0.5291507441695869</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2964,7 +2964,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5279417045748511</v>
+        <v>0.5287051942104231</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5176834747791725</v>
+        <v>0.5180491640698053</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2980,7 +2980,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5159537390563247</v>
+        <v>0.5164062277441075</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5159537390563247</v>
+        <v>0.5164062277441075</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5157283300758544</v>
+        <v>0.5129069210386841</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5133303955537287</v>
+        <v>0.5125949257670337</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5121424370792509</v>
+        <v>0.5117668695464261</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5109289347591246</v>
+        <v>0.5106451740425118</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4961749837384382</v>
+        <v>0.497076643712794</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.4958053659709289</v>
+        <v>0.496627472426221</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.4858485959919387</v>
+        <v>0.4873504394528316</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4853915299329095</v>
+        <v>0.4858485959919387</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4830412995992437</v>
+        <v>0.4834937882870265</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4822126628840246</v>
+        <v>0.4821685725365512</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4821685725365512</v>
+        <v>0.4811342998147574</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.4602182846047795</v>
+        <v>0.4595395515731053</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4602182846047795</v>
+        <v>0.4595395515731053</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.4536927113353069</v>
+        <v>0.4521965855704679</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3124,7 +3124,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.450344436471005</v>
+        <v>0.4500742001713571</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4500212606938829</v>
+        <v>0.4499831536863468</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4374759328276199</v>
+        <v>0.4360920498373997</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.435705992887276</v>
+        <v>0.4356206176631656</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4302292090374886</v>
+        <v>0.4302595774057967</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4213323425803972</v>
+        <v>0.4214268506609693</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4185174987227152</v>
+        <v>0.4188232003665151</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4163300212468188</v>
+        <v>0.4156248653041401</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4099428821818791</v>
+        <v>0.4100463336365334</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4090282340890221</v>
+        <v>0.4099428821818791</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4071020097899707</v>
+        <v>0.4070623134380567</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4050581470635608</v>
+        <v>0.4048967642098704</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3895321495105446</v>
+        <v>0.3885954569454999</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3883902850539114</v>
+        <v>0.388189280400838</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3866195640565069</v>
+        <v>0.3881220275079365</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3837342247397302</v>
+        <v>0.3878453093066145</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3821777634645533</v>
+        <v>0.3846168229688067</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3767814249201931</v>
+        <v>0.3845954125913962</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3766363613339165</v>
+        <v>0.3823391319348786</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3763623500319224</v>
+        <v>0.3765122437561508</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3754697207382089</v>
+        <v>0.3761037362116655</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3748399360907837</v>
+        <v>0.3754670033604417</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3624169471568737</v>
+        <v>0.3619082684618882</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3620469724937394</v>
+        <v>0.3617381728997684</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.3598511742563044</v>
+        <v>0.3602998517973077</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3581279910363366</v>
+        <v>0.3599145549477594</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3572787213082413</v>
+        <v>0.3575091308661489</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.35482563956141</v>
+        <v>0.3549692949596306</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3538658066854423</v>
+        <v>0.35482563956141</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3534655365611055</v>
+        <v>0.3532681295463325</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.3416783128037679</v>
+        <v>0.3417309277674641</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3406151897481684</v>
+        <v>0.3407196538583297</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3384437771819562</v>
+        <v>0.3366258926212102</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3331679407887957</v>
+        <v>0.3361200328646206</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3329457356309984</v>
+        <v>0.3333360140742938</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3222030897541863</v>
+        <v>0.3221901381389118</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3138560045426391</v>
+        <v>0.3137736206351254</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3133760798178957</v>
+        <v>0.3135063771988325</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3113574361771556</v>
+        <v>0.3106406881071073</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3029358335179337</v>
+        <v>0.3029871373477537</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3010641191796755</v>
+        <v>0.3014655967777371</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2937045233042519</v>
+        <v>0.2989304651817721</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.293075935132594</v>
+        <v>0.2923367101074192</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2850188914622935</v>
+        <v>0.2879346992193448</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2808604608505629</v>
+        <v>0.2818592165709408</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2771212207353506</v>
+        <v>0.2786104233054354</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2724811072242748</v>
+        <v>0.2767448536456454</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2697355969191564</v>
+        <v>0.2722421057063329</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2597063371492268</v>
+        <v>0.2579331995388903</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2510084333799172</v>
+        <v>0.2508590191658289</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2486313727493519</v>
+        <v>0.2488975425656945</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2425678555868964</v>
+        <v>0.2430075390015769</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2417836741253903</v>
+        <v>0.2416960450016028</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2380987177885547</v>
+        <v>0.2384121215995156</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2327420601662746</v>
+        <v>0.2327720825061821</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2252747285249912</v>
+        <v>0.2265328152115691</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2239769887068621</v>
+        <v>0.2244294773946449</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.217051794920454</v>
+        <v>0.2170685771358238</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2119585448813956</v>
+        <v>0.2111258696185696</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2114215442896357</v>
+        <v>0.2106622793527086</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2093917970242107</v>
+        <v>0.2095058802652932</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2091465665685273</v>
+        <v>0.2091525714925644</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2062788692515647</v>
+        <v>0.2067937893835348</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2030686206265295</v>
+        <v>0.2031383033319585</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2010153023782637</v>
+        <v>0.2009776533581888</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.1915126542940175</v>
+        <v>0.1903544302180809</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1899631147729388</v>
+        <v>0.1889543197622179</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.177287874538167</v>
+        <v>0.1772448307297436</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1734643600337085</v>
+        <v>0.1735423753247056</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.1724185343391043</v>
+        <v>0.1728710230268868</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1696473513956047</v>
+        <v>0.1699544504663451</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1676077867478953</v>
+        <v>0.1672969812831313</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.1635269825609362</v>
+        <v>0.1636624493419441</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.1597538200994637</v>
+        <v>0.1603397710208809</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1584772663210554</v>
+        <v>0.158410723866969</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1520087012077109</v>
+        <v>0.152493923295367</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1400532618344545</v>
+        <v>0.1399912770827036</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1338450375708466</v>
+        <v>0.1337884764848745</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3900,7 +3900,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.1330988129691171</v>
+        <v>0.133177471914008</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1303898088039956</v>
+        <v>0.1303310440393484</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3932,7 +3932,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.127258105447986</v>
+        <v>0.1273828068164717</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1269303181286889</v>
+        <v>0.1273266643400739</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.124868444245203</v>
+        <v>0.1247212837253806</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1227115603522637</v>
+        <v>0.1224869339319372</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1215751043581763</v>
+        <v>0.1222268523222363</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3980,7 +3980,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1208064403656581</v>
+        <v>0.1215751043581763</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3988,7 +3988,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1206116399978345</v>
+        <v>0.1214670160493845</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3996,7 +3996,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1198086605111504</v>
+        <v>0.1200319371610967</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4012,7 +4012,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1189772471694557</v>
+        <v>0.1198086605111504</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4020,7 +4020,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1187603121777341</v>
+        <v>0.1189772471694557</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4028,7 +4028,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1187086272418187</v>
+        <v>0.1187603121777341</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1182685572536739</v>
+        <v>0.1186256859013102</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4044,7 +4044,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1176537196266072</v>
+        <v>0.1182685572536739</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1170981277276844</v>
+        <v>0.116933153074158</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.116933153074158</v>
+        <v>0.1168476727935817</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1167316500531239</v>
+        <v>0.1163410010558914</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1163410010558914</v>
+        <v>0.115482055091997</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1153103133367999</v>
+        <v>0.1153618139345534</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1148142620277623</v>
+        <v>0.11480207717554</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4164,7 +4164,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1043353962613724</v>
+        <v>0.1039762772607002</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4172,7 +4172,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1038772970891424</v>
+        <v>0.1039671981325432</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4180,7 +4180,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1038755727033556</v>
+        <v>0.1039190752705319</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4228,7 +4228,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.09850129401129437</v>
+        <v>0.09848847797304572</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4236,7 +4236,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.09848847797304572</v>
+        <v>0.0974679908940479</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4260,7 +4260,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.09381010526483746</v>
+        <v>0.09362754132541373</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4268,7 +4268,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.09186782301952023</v>
+        <v>0.09195526248775332</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.08833381995904355</v>
+        <v>0.08822900567357839</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4324,7 +4324,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.08533269680722078</v>
+        <v>0.08677179603262108</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4332,7 +4332,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.08444138272927937</v>
+        <v>0.08533269680722078</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4372,7 +4372,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.0833623686445073</v>
+        <v>0.08346073575054747</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4396,7 +4396,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.08203954334930419</v>
+        <v>0.08195923042741704</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.08130677989676194</v>
+        <v>0.08153048575437416</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.0811142922160808</v>
+        <v>0.08130677989676194</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.08077379697383558</v>
+        <v>0.08020614649719215</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.08020614649719215</v>
+        <v>0.07939394134632205</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.07939394134632205</v>
+        <v>0.07898210389046811</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4468,7 +4468,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.07899902399322078</v>
+        <v>0.07893251208558683</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4476,7 +4476,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.07898210389046811</v>
+        <v>0.07778429779294416</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4492,7 +4492,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.07778429779294416</v>
+        <v>0.07600139759305136</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4500,7 +4500,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.07586427980887467</v>
+        <v>0.07575544410595336</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4516,7 +4516,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.07308504075604771</v>
+        <v>0.07097705132310028</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4524,7 +4524,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.07065384511754114</v>
+        <v>0.06987105663613002</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4548,7 +4548,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.06707646690987823</v>
+        <v>0.06704139026741474</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4556,7 +4556,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.06011322287113163</v>
+        <v>0.05936850844549668</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4564,7 +4564,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.05936850844549668</v>
+        <v>0.05860477031698519</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.05860477031698519</v>
+        <v>0.05854820923101212</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.05860477031698519</v>
+        <v>0.05703914432319301</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.05649612328203735</v>
+        <v>0.05663160534980882</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4620,7 +4620,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.05642592867354335</v>
+        <v>0.05649612328203735</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4628,7 +4628,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.05603237389203231</v>
+        <v>0.05630338469246698</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4644,7 +4644,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.05285030755328468</v>
+        <v>0.05274551503456792</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4660,7 +4660,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.04872675309714269</v>
+        <v>0.04871327519034052</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4668,7 +4668,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.0432236784419433</v>
+        <v>0.04129831296461073</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4676,7 +4676,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.04125260703655065</v>
+        <v>0.0379943269595997</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4684,7 +4684,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.03809719981803239</v>
+        <v>0.03493318164456705</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4700,7 +4700,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.02044549880309421</v>
+        <v>0.01934182107740834</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4716,7 +4716,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.01627854857539091</v>
+        <v>0.01681731499078953</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4724,7 +4724,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.01472349020678632</v>
+        <v>0.01563213616427261</v>
       </c>
     </row>
     <row r="394" spans="1:2">
